--- a/pred_ohlcv/54_21/2020-01-11 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-82510.11034843999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-82855.11034843999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-83718.98964843999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-83718.98964843999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-79548.85024843998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-79532.85024843998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-93354.53933347997</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-93354.53933347997</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-93352.53933347997</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-93541.53923347997</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-93541.53923347997</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-93469.53923347997</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-93460.53923347997</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-93563.36983347997</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-93537.36983347997</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-94156.36973347997</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-94153.36973347997</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-94173.21673347996</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-94173.21673347996</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-94214.16443347996</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-94256.23773347997</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-94974.90193347995</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-101228.30103348</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-109360.84493348</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-109360.84493348</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-109360.84493348</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-110368.05013348</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-155821.67140628</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-155029.67140628</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-151113.92820628</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-147123.90320628</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-149495.50320628</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-150495.50320628</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-146354.16310628</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-160703.94770628</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-159756.64770628</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-159756.64770628</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-157140.68780628</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-155324.03776896</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-156492.80041571</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-145817.32931571</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-146854.43881571</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-146854.43881571</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-147754.43881571</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-147653.93071571</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-150383.09751571</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-149808.05891571</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-150447.45121571</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-149685.06311571</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-164908.56311571</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-176270.29471571</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-180578.53101571</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-180578.53101571</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-174924.50174241</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-172762.22164878</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-184210.85584878</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-176353.76064878</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-181929.79154878</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-171430.16750679</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-171437.16750679</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-172640.8161067899</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-171019.3161067899</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-171019.3161067899</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-168194.1161067899</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-174251.3015067899</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-155294.1661403699</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-155431.0381403699</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-155426.0381403699</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 MTL ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>-94974.90193347995</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-94982.90193347995</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-95016.33833347996</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-95028.76933347996</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-95047.37813347996</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-161102.64770628</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-155837.72611571</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-147754.43881571</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-147653.93071571</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-150447.45121571</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-182002.72171571</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-174924.50174241</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-175971.81584241</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-176199.55914241</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-171998.41514878</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-172774.76104878</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-184210.85584878</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-183802.25334878</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-176353.76064878</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-181929.79154878</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-180016.23254878</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-178984.76914878</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-174829.73561571</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-174320.67661571</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-171430.16750679</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-171437.16750679</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-172640.8161067899</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-168194.1161067899</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-168543.5270067899</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-174251.3015067899</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-155294.1661403699</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-155431.0381403699</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-155426.0381403699</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
